--- a/biology/Zoologie/Coracine/Coracine.xlsx
+++ b/biology/Zoologie/Coracine/Coracine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En ornithologie, l'appellation française Coracine désigne des espèces d'oiseaux d'Amérique du Sud, de la famille des Cotingidae. La confusion avec le genre latin Coracina (Échenilleurs, en français), genre de la famille des Campephagidae, doit être évitée.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des coracines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coracine casquée — Cephalopterus penduliger
 Coracine chauve — Perissocephalus tricolor
